--- a/public/format_import_siswa.xlsx
+++ b/public/format_import_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\jurnalpkl\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\jurnalpklsrv\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF0D981-CD40-42C4-AB98-CA7566B5AAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0E258-1633-4871-8859-189915B2A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73663314-A0BC-4D45-B5BE-33E615AD572F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73663314-A0BC-4D45-B5BE-33E615AD572F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>HAPUS BARIS PERTAMA SEBELUM IMPORT DATA</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>JK (L / P)</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Banjarnegara</t>
+  </si>
+  <si>
+    <t>2006-12-25</t>
+  </si>
+  <si>
+    <t>2006-11-20</t>
   </si>
 </sst>
 </file>
@@ -151,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -161,7 +176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -478,9 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A3EBAF-38FD-4F71-8019-18EF75A666E7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -488,10 +504,12 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,11 +522,17 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -518,11 +542,17 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -532,8 +562,14 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
